--- a/app/Licenciatura_em_Engenharia_Florestal.xlsx
+++ b/app/Licenciatura_em_Engenharia_Florestal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Cristina Mario</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Teresinha D. Nhalingue</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100339171P</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>CÂndida Mariano JosÉ Sampareia</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101142331P</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>Milagre Carlos Calangue</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -315,9 +303,6 @@
     <t>Brigida A. Nhcundela</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>+258821297444</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>Ana Paula Carmona Bila</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100494683J</t>
   </si>
   <si>
@@ -366,9 +348,6 @@
     <t>Gilda Daniel Zonbola</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080104162581B</t>
   </si>
   <si>
@@ -483,9 +462,6 @@
     <t>Rocina Naiene Chauque</t>
   </si>
   <si>
-    <t>Distrito de Massangena</t>
-  </si>
-  <si>
     <t>091002211960B</t>
   </si>
   <si>
@@ -534,9 +510,6 @@
     <t>Bendita Rafael</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>020604694584Q</t>
   </si>
   <si>
@@ -561,9 +534,6 @@
     <t>Gloria Victorino</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110200083815M</t>
   </si>
   <si>
@@ -651,9 +621,6 @@
     <t>Amina Perpebe</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020101676647C</t>
   </si>
   <si>
@@ -678,9 +645,6 @@
     <t>Maria Odete F. Cuambe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>070101399293B</t>
   </si>
   <si>
@@ -702,9 +666,6 @@
     <t>Luisa Jaime Diogo</t>
   </si>
   <si>
-    <t>Distrito de Angoche</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -727,9 +688,6 @@
   </si>
   <si>
     <t>Rita Tiaona</t>
-  </si>
-  <si>
-    <t>Cidade de Chimoio</t>
   </si>
   <si>
     <t>060104691826J</t>
@@ -2061,7 +2019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2077,7 +2035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2093,7 +2051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2109,7 +2067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2125,7 +2083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2140,9 +2098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2150,7 +2106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2161,7 +2117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2170,7 +2126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2182,7 +2138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2190,7 +2146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2286,7 +2242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2329,7 +2285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2656,7 +2612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2672,7 +2628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2688,7 +2644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2704,7 +2660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2720,7 +2676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2735,9 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2745,7 +2699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2756,7 +2710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2765,7 +2719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2777,7 +2731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2785,7 +2739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2881,7 +2835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2924,7 +2878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3251,7 +3205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3267,7 +3221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3283,7 +3237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3299,7 +3253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3315,7 +3269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3330,9 +3284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3340,7 +3292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3351,7 +3303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3360,7 +3312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3372,7 +3324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3380,7 +3332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3476,7 +3428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3519,7 +3471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3846,7 +3798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3862,7 +3814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3878,7 +3830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3894,7 +3846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3910,7 +3862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3925,9 +3877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3935,7 +3885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3946,7 +3896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3955,7 +3905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3967,7 +3917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3975,7 +3925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4071,7 +4021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4114,7 +4064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4441,7 +4391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4457,7 +4407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4473,7 +4423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4489,7 +4439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4505,7 +4455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4520,9 +4470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4530,7 +4478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4541,7 +4489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4550,7 +4498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4562,7 +4510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4570,7 +4518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4666,7 +4614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4709,7 +4657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5036,7 +4984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5052,7 +5000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5068,7 +5016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5084,7 +5032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5100,7 +5048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5115,9 +5063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5125,7 +5071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5136,7 +5082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5145,7 +5091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5157,7 +5103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5165,7 +5111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5261,7 +5207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5304,7 +5250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5631,7 +5577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5647,7 +5593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5663,7 +5609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5679,7 +5625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5695,7 +5641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5710,9 +5656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5720,7 +5664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5731,7 +5675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5740,7 +5684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5752,7 +5696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5760,7 +5704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5856,7 +5800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5899,7 +5843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6226,7 +6170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6242,7 +6186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6258,7 +6202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6274,7 +6218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6290,7 +6234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6305,9 +6249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6315,7 +6257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6326,7 +6268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6335,7 +6277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6347,7 +6289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6451,7 +6393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6494,7 +6436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6821,7 +6763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6837,7 +6779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6853,7 +6795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6869,7 +6811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6885,7 +6827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6900,9 +6842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6910,7 +6850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6921,7 +6861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6930,7 +6870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6942,7 +6882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6950,7 +6890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7046,7 +6986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7089,7 +7029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7416,7 +7356,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7432,7 +7372,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7448,7 +7388,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7464,7 +7404,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7480,7 +7420,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7495,9 +7435,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7505,7 +7443,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7516,7 +7454,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7525,7 +7463,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7537,7 +7475,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7545,7 +7483,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7641,7 +7579,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7684,7 +7622,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8090,9 +8028,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8100,7 +8036,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8111,7 +8047,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8120,7 +8056,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8132,7 +8068,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8140,7 +8076,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8236,7 +8172,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8279,7 +8215,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8606,7 +8542,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8622,7 +8558,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8638,7 +8574,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8654,7 +8590,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8670,7 +8606,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8685,9 +8621,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8695,7 +8629,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8706,7 +8640,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8715,7 +8649,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8727,7 +8661,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8735,7 +8669,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8831,7 +8765,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8874,7 +8808,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9201,7 +9135,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9217,7 +9151,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9233,7 +9167,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9249,7 +9183,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9265,7 +9199,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9280,9 +9214,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9290,7 +9222,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9301,7 +9233,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9310,7 +9242,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9322,7 +9254,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9330,7 +9262,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9426,7 +9358,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9469,7 +9401,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9796,7 +9728,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9812,7 +9744,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9828,7 +9760,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9844,7 +9776,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9860,7 +9792,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9875,9 +9807,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9885,7 +9815,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9896,7 +9826,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9905,7 +9835,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9917,7 +9847,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10021,7 +9951,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10064,7 +9994,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10391,7 +10321,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10407,7 +10337,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10423,7 +10353,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10439,7 +10369,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10455,7 +10385,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10470,9 +10400,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10480,7 +10408,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10491,7 +10419,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10500,7 +10428,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10512,7 +10440,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10520,7 +10448,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10616,7 +10544,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10659,7 +10587,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10986,7 +10914,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11002,7 +10930,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11018,7 +10946,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11034,7 +10962,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11050,7 +10978,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11065,9 +10993,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11075,7 +11001,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11086,7 +11012,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11095,7 +11021,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11107,7 +11033,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11115,7 +11041,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11211,7 +11137,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11254,7 +11180,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11581,7 +11507,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11597,7 +11523,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11613,7 +11539,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11629,7 +11555,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11645,7 +11571,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11660,9 +11586,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11670,7 +11594,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11681,7 +11605,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11690,7 +11614,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11702,7 +11626,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11710,7 +11634,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11806,7 +11730,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11849,7 +11773,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12176,7 +12100,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12192,7 +12116,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12208,7 +12132,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12224,7 +12148,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12240,7 +12164,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12255,9 +12179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12265,7 +12187,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12276,7 +12198,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12285,7 +12207,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12297,7 +12219,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12305,7 +12227,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12401,7 +12323,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12444,7 +12366,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12827,7 +12749,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12843,7 +12765,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12859,7 +12781,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12875,7 +12797,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12891,7 +12813,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12906,9 +12828,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12916,7 +12836,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12927,7 +12847,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12936,7 +12856,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12948,7 +12868,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12956,7 +12876,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13052,7 +12972,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13095,7 +13015,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13422,7 +13342,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13438,7 +13358,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13454,7 +13374,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13470,7 +13390,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13486,7 +13406,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13501,9 +13421,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13511,7 +13429,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13522,7 +13440,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13531,7 +13449,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13543,7 +13461,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13551,7 +13469,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13647,7 +13565,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13690,7 +13608,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14017,7 +13935,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14033,7 +13951,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14049,7 +13967,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14065,7 +13983,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14081,7 +13999,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14096,9 +14014,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14106,7 +14022,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14117,7 +14033,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14126,7 +14042,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14138,7 +14054,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14146,7 +14062,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14242,7 +14158,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14285,7 +14201,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14612,7 +14528,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14628,7 +14544,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14644,7 +14560,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14660,7 +14576,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14676,7 +14592,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14691,9 +14607,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14701,7 +14615,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14712,7 +14626,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14721,7 +14635,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14733,7 +14647,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14837,7 +14751,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14880,7 +14794,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15207,7 +15121,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15223,7 +15137,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15239,7 +15153,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15255,7 +15169,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15271,7 +15185,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15286,9 +15200,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15296,7 +15208,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15307,7 +15219,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15316,7 +15228,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15328,7 +15240,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15336,7 +15248,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15432,7 +15344,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15475,7 +15387,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15802,7 +15714,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15818,7 +15730,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15834,7 +15746,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15850,7 +15762,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15866,7 +15778,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15881,9 +15793,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15891,7 +15801,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15902,7 +15812,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15911,7 +15821,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15923,7 +15833,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15931,7 +15841,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16027,7 +15937,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16070,7 +15980,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16397,7 +16307,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16413,7 +16323,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16429,7 +16339,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16445,7 +16355,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16461,7 +16371,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16476,9 +16386,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16486,7 +16394,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16497,7 +16405,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16506,7 +16414,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16518,7 +16426,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16526,7 +16434,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16622,7 +16530,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16665,7 +16573,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
